--- a/Map/test.xlsx
+++ b/Map/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,37 +434,55 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1300</v>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1300</v>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1300</v>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1300</v>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>1500</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
         <v>1500</v>
       </c>
     </row>
